--- a/medicine/Pharmacie/Récepteur_X_des_rétinoïdes/Récepteur_X_des_rétinoïdes.xlsx
+++ b/medicine/Pharmacie/Récepteur_X_des_rétinoïdes/Récepteur_X_des_rétinoïdes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_X_des_r%C3%A9tino%C3%AFdes</t>
+          <t>Récepteur_X_des_rétinoïdes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récepteur X de rétinoïdes (RXR, retinoid X receptor) est une protéine de la famille des récepteurs nucléaires dépendant de ligand et activé par son association avec le récepteur de l'acide rétinoïque (ou vitamine A). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_X_des_r%C3%A9tino%C3%AFdes</t>
+          <t>Récepteur_X_des_rétinoïdes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un récepteur homodimère.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_X_des_r%C3%A9tino%C3%AFdes</t>
+          <t>Récepteur_X_des_rétinoïdes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le RXR agit sous forme d'hétérodimères avec le récepteur de l'acide rétinoïque (RAR), le récepteur de la vitamine D (VDR), le récepteur des hormones thyroïdiennes ou les récepteurs de prolifération des peroxysomes  (PPAR).
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_X_des_r%C3%A9tino%C3%AFdes</t>
+          <t>Récepteur_X_des_rétinoïdes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">RXR se comporte comme un facteur de transcription pour certains gènes après fixation sur leur promoteur notamment dans le cas de la synthèse d'ostéopontine (rôle dans fixation du calcium sur les os).
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_X_des_r%C3%A9tino%C3%AFdes</t>
+          <t>Récepteur_X_des_rétinoïdes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
